--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3586552.28617853</v>
+        <v>3690632.411981414</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12502432.03437992</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498524</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7640543.072753547</v>
+        <v>7613296.251723599</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -668,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>175.5903906093066</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>15.54413360818849</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>192.1677574782682</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>13.18609391401973</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -953,16 +955,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>15.03347606442201</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>26.36573169766212</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>135.155792141666</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>69.11451899103611</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1108,19 +1110,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1139,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>270.4868569307846</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>40.12741312164616</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1294,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>137.0872572463026</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1342,13 +1344,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>28.22722778407964</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.154082144414</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>22.04658882052618</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>32.81060261323915</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1613,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>98.72106119200298</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>96.36494467178768</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2002,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>53.65602513333643</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>4.019807611472022</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2239,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2366,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2485,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8253826161913385</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>152.3242997534466</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2552,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2728,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>139.9371893537534</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2770,13 +2772,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>107.3363007608863</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2852,13 +2854,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.962173606588</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261725</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545293</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308914</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>141.239490800229</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>56.9811888265257</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808473</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096048</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352484</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972043</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969973</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.300005860055</v>
+        <v>157.2343752954199</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>30.87238256911976</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652578</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808338</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652578</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808203</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652578</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808192</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096047</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972048</v>
+        <v>142.3575218158273</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3752,10 +3754,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652578</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808338</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>99.98993057842257</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4135,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4144,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>105.8460632289453</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>138.6129131698093</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1767.878520285689</v>
+        <v>1198.574246756696</v>
       </c>
       <c r="C2" t="n">
-        <v>1398.916003345277</v>
+        <v>829.6117298162847</v>
       </c>
       <c r="D2" t="n">
-        <v>1040.650304738527</v>
+        <v>471.3460312095341</v>
       </c>
       <c r="E2" t="n">
-        <v>654.8620521402825</v>
+        <v>85.5577786112899</v>
       </c>
       <c r="F2" t="n">
-        <v>243.8761473506749</v>
+        <v>78.61227786208643</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.94793162677936</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.94793162677936</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792695</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W2" t="n">
-        <v>2531.48361052258</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="X2" t="n">
-        <v>2158.017852261501</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="Y2" t="n">
-        <v>1767.878520285689</v>
+        <v>1585.174086820818</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>1977.748514897737</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1708.366253916658</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C4" t="n">
-        <v>1708.366253916658</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D4" t="n">
-        <v>1708.366253916658</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>1708.366253916658</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>1708.366253916658</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916658</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134516</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366698</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>3044.089480193525</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T4" t="n">
-        <v>2822.322864763051</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>2628.214018825406</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V4" t="n">
-        <v>2628.214018825406</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="W4" t="n">
-        <v>2338.796848788445</v>
+        <v>383.6188956900839</v>
       </c>
       <c r="X4" t="n">
-        <v>2110.807297890428</v>
+        <v>383.6188956900839</v>
       </c>
       <c r="Y4" t="n">
-        <v>1890.014718746898</v>
+        <v>370.2996089082458</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1590.416669135309</v>
+        <v>1285.277735635578</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2740.621599436322</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2740.621599436322</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2367.155841175242</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>1977.016509199431</v>
+        <v>1671.877575699699</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>431.1278029579779</v>
+        <v>663.8430895008161</v>
       </c>
       <c r="C7" t="n">
-        <v>431.1278029579779</v>
+        <v>527.322087337517</v>
       </c>
       <c r="D7" t="n">
-        <v>431.1278029579779</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E7" t="n">
-        <v>283.2147093755848</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>136.3247618776744</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>136.3247618776744</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4756,19 +4758,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1169.327103036486</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W7" t="n">
-        <v>879.9099329995254</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X7" t="n">
-        <v>651.920382101508</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="Y7" t="n">
-        <v>431.1278029579779</v>
+        <v>845.4915543310558</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2232.598233480554</v>
+        <v>1238.038871968308</v>
       </c>
       <c r="C8" t="n">
-        <v>1863.635716540142</v>
+        <v>869.0763550278964</v>
       </c>
       <c r="D8" t="n">
-        <v>1505.370017933391</v>
+        <v>510.8106564211459</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>125.0224038229017</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>118.0769030736982</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>107.0448569590987</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>107.0448569590987</v>
       </c>
       <c r="I8" t="n">
         <v>66.5121164321834</v>
@@ -4814,10 +4816,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296685</v>
@@ -4829,25 +4831,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520487</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520487</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X8" t="n">
-        <v>3009.337405520487</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y8" t="n">
-        <v>2619.198073544675</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="9">
@@ -4875,19 +4877,19 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>629.1078027362229</v>
+        <v>471.2459535582122</v>
       </c>
       <c r="C10" t="n">
-        <v>460.171619808316</v>
+        <v>302.3097706303054</v>
       </c>
       <c r="D10" t="n">
-        <v>310.0549803959802</v>
+        <v>163.837793613838</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959802</v>
+        <v>163.837793613838</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959802</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H10" t="n">
         <v>163.837793613838</v>
@@ -4990,22 +4992,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1617.265855375797</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1328.162988501441</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V10" t="n">
-        <v>1328.162988501441</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W10" t="n">
-        <v>1038.74581846448</v>
+        <v>1101.676548429999</v>
       </c>
       <c r="X10" t="n">
-        <v>810.7562675664626</v>
+        <v>873.6869975319821</v>
       </c>
       <c r="Y10" t="n">
-        <v>810.7562675664626</v>
+        <v>652.894418388452</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,31 +5029,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5060,22 +5062,22 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,22 +5114,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
         <v>1307.627092998424</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.843151638089</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C13" t="n">
-        <v>572.9069687101821</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1400.559342807163</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611859</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683287</v>
+        <v>951.777212765616</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5260,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5267,16 +5269,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5288,7 +5290,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5355,25 +5357,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>734.6461798836018</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C16" t="n">
-        <v>734.6461798836018</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>584.529540471266</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1336.363037697518</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138415</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="17">
@@ -5489,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>2876.560776129205</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>3473.939263755757</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>4101.537227310363</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>4101.537227310363</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>4525.160376805431</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597619</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5741,61 +5743,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996072</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5887,25 +5889,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5978,40 +5980,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597624</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474266</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E25" t="n">
-        <v>261.8464821474266</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>261.8464821474266</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>94.65038286230657</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2043.199616443682</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>2043.199616443682</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1788.515128237795</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>1271.108407302817</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,55 +6360,55 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.306025422647</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>929.3698424947402</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>779.2532030824044</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>631.3401095000113</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.4501620021009</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.2540627169809</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
         <v>2264.108249235165</v>
@@ -6418,16 +6420,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1755.431557602304</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1647.011051783227</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>1279.954490252887</v>
       </c>
     </row>
     <row r="29">
@@ -6455,22 +6457,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6482,28 +6484,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319316</v>
+        <v>642.8692823226939</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656811</v>
+        <v>473.9330993947871</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150018</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E31" t="n">
-        <v>533.581456494265</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580111</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345474</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384019</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954152</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380732</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311327</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979287</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656415</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717216</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931272</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547833</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.38532953243</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838284</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594054</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518749</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400515</v>
+        <v>824.5177471529337</v>
       </c>
     </row>
     <row r="32">
@@ -6680,40 +6682,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,28 +6779,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2222.001901828445</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>988.1395539230172</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>819.2033709951103</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150022</v>
+        <v>669.0867315827745</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>521.1736380003814</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>374.283690502471</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>207.087591217351</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380731</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311326</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717216</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1618.570148794804</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1390.580597896787</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1169.788018753257</v>
       </c>
     </row>
     <row r="35">
@@ -6926,19 +6928,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6953,13 +6955,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C36" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D36" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637307</v>
+        <v>2726.91413360155</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>3324.292621228102</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>3951.890584782709</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>4267.210002903525</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S36" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2978.493192213312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>2834.086956247061</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>2708.500263796382</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E37" t="n">
-        <v>2585.117117175645</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F37" t="n">
-        <v>2462.757116639391</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>2320.090964315927</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>2202.909080119781</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2145.352323729351</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2249.630143176794</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2535.361206719452</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>2949.801601912512</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3395.853105660666</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3837.304778337793</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4230.875860063898</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4547.593116654576</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4648.317395612653</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4489.992508229214</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4294.920990213811</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4030.375710519665</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3800.221169275434</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3535.33394620013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3331.874342263769</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3135.611710081895</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7166,46 +7168,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615665</v>
       </c>
       <c r="C39" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334538</v>
       </c>
       <c r="D39" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673287</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667831</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694716</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740624</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>2346.760538432045</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>2680.685310603265</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>2680.685310603265</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>3278.063798229817</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>3905.661761784424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S39" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301205</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022979</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566164</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334421</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.99811360622</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400687</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635733</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380731</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311326</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1833.665603928865</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M42" t="n">
-        <v>1540.888753373306</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373306</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612593</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150022</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311326</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="44">
@@ -7628,10 +7630,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
         <v>793.7736536168611</v>
@@ -7640,16 +7642,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,34 +7663,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>244.2098454714573</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>739.5354516872161</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>741.843151638089</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C46" t="n">
-        <v>741.843151638089</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D46" t="n">
-        <v>591.7265122257533</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E46" t="n">
-        <v>591.7265122257533</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
         <v>484.8112968429802</v>
@@ -7798,58 +7800,58 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X46" t="n">
-        <v>1144.284195611859</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y46" t="n">
-        <v>923.4916164683287</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8070,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039159</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>14.25823202432844</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>126.5688841976862</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>253.7123957233518</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>47.71290145456619</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>190.1580536648033</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>113.5907959652914</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>142.4141550350971</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>43.72409101823416</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24373,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>139.4693302300325</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>65.08115057384163</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.3575234924705342</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>179.1866975757047</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24847,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>61.35027805667485</v>
       </c>
     </row>
     <row r="32">
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>109.4223302771041</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25126,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25552,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25603,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>143.8269525734169</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25843,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>186.5330677581684</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>39.57498479398593</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>79.97174018228549</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>665982.5753666116</v>
+        <v>674895.4666182178</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>654866.4392271898</v>
+        <v>654866.4392271896</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>665982.5753666116</v>
+        <v>654866.4392271898</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>665982.5753666116</v>
+        <v>654866.4392271898</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>665982.5753666116</v>
+        <v>654866.4392271898</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>665982.5753666116</v>
+        <v>654866.4392271898</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>665982.5753666116</v>
+        <v>654866.4392271898</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710693</v>
+        <v>779989.6813710695</v>
       </c>
       <c r="C2" t="n">
         <v>779989.681371069</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="F2" t="n">
         <v>766789.269705506</v>
       </c>
       <c r="G2" t="n">
-        <v>766789.2697055055</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="H2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="I2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="J2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="K2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="L2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="M2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="N2" t="n">
         <v>766789.2697055057</v>
       </c>
-      <c r="J2" t="n">
-        <v>766789.2697055058</v>
-      </c>
-      <c r="K2" t="n">
-        <v>779989.6813710695</v>
-      </c>
-      <c r="L2" t="n">
-        <v>779989.6813710694</v>
-      </c>
-      <c r="M2" t="n">
-        <v>779989.6813710694</v>
-      </c>
-      <c r="N2" t="n">
-        <v>779989.6813710694</v>
-      </c>
       <c r="O2" t="n">
-        <v>779989.6813710694</v>
+        <v>766789.2697055062</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.269705506</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>203438.7416121061</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363179</v>
+        <v>49110.09270605445</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551199</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89134.17909312021</v>
+        <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312017</v>
+        <v>89134.17909312015</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.1790931202</v>
+        <v>89134.17909312023</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768948</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
+        <v>9947.144321768959</v>
+      </c>
+      <c r="I4" t="n">
         <v>9947.144321768897</v>
       </c>
-      <c r="I4" t="n">
-        <v>9947.144321768876</v>
-      </c>
       <c r="J4" t="n">
-        <v>9947.144321768921</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="K4" t="n">
-        <v>17938.0035848624</v>
+        <v>9947.144321768959</v>
       </c>
       <c r="L4" t="n">
-        <v>17938.00358486237</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
-        <v>17938.00358486233</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
-        <v>17938.00358486237</v>
+        <v>9947.144321768952</v>
       </c>
       <c r="O4" t="n">
-        <v>17938.00358486237</v>
+        <v>9947.144321768963</v>
       </c>
       <c r="P4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-745823.1840110368</v>
+        <v>-565630.2850519166</v>
       </c>
       <c r="C6" t="n">
-        <v>582921.5617165556</v>
+        <v>379482.8201044495</v>
       </c>
       <c r="D6" t="n">
         <v>582921.5617165555</v>
       </c>
       <c r="E6" t="n">
-        <v>330307.1337524746</v>
+        <v>330307.1337524747</v>
       </c>
       <c r="F6" t="n">
         <v>655719.5955598301</v>
       </c>
       <c r="G6" t="n">
-        <v>655719.5955598295</v>
+        <v>655719.59555983</v>
       </c>
       <c r="H6" t="n">
+        <v>655719.5955598298</v>
+      </c>
+      <c r="I6" t="n">
         <v>655719.59555983</v>
       </c>
-      <c r="I6" t="n">
-        <v>655719.5955598296</v>
-      </c>
       <c r="J6" t="n">
-        <v>438188.3931625523</v>
+        <v>488114.4177498473</v>
       </c>
       <c r="K6" t="n">
-        <v>639459.8439386599</v>
+        <v>606609.5028537754</v>
       </c>
       <c r="L6" t="n">
-        <v>658887.5619322916</v>
+        <v>655719.59555983</v>
       </c>
       <c r="M6" t="n">
-        <v>573832.5339967797</v>
+        <v>570664.5676243181</v>
       </c>
       <c r="N6" t="n">
-        <v>658887.5619322916</v>
+        <v>655719.5955598297</v>
       </c>
       <c r="O6" t="n">
-        <v>658887.5619322916</v>
+        <v>655719.5955598301</v>
       </c>
       <c r="P6" t="n">
-        <v>655719.5955598296</v>
+        <v>655719.5955598301</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203982</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26808,10 +26810,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,16 +26822,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>190.816623302254</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27388,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>235.3313350441469</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>50.16577906428201</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,19 +27593,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>94.04408072734466</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>205.3985594380751</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27673,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>312.7187824057129</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>359.8722069583915</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>32.09102895696179</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>75.64049592328467</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27828,19 +27830,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27859,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>111.4435131414772</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1.449516651279787</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>11.52821577190971</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,7 +28028,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28062,13 +28064,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>191.3217214920896</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28804,7 +28806,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29578,7 +29580,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203982</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203982</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203982</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203982</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203982</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203982</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203982</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203982</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203982</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203982</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203982</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203982</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203982</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203982</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203982</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203982</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203982</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203982</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203982</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203982</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203982</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203982</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203982</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30280,7 +30282,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30477,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>368.6279838366847</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>282.8216163968498</v>
+        <v>669.5976799347666</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,7 +32317,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,16 +32329,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>164.9290651940687</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>270.3182595810212</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,13 +32551,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>456.3459017226598</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32566,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>454.1257695262137</v>
       </c>
       <c r="N24" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>430.400187030115</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>354.9153144485699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>366.8427442359099</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>471.1883883160951</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>689.3300812557329</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>431.3680753731354</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33740,34 +33742,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>225.4828684302374</v>
+        <v>461.1007071927443</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>243.1729913598529</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>615.0381444378773</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>290.6810969936921</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>138.5955196772183</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>355.4083096598243</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>263.9377611478607</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>237.2862717533515</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35732,19 +35734,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>140.6875824748315</v>
+        <v>527.4636460127483</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35963,7 +35965,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,16 +35977,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>130.3364854949997</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36214,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="N24" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>220.9409070342396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>235.5010321525766</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>328.5921438716507</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549932</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016748</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111713</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.557074493085</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819473</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980853</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986648</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919382</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>557.9883691723996</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>297.3936679588052</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549932</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,22 +37390,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>82.88662398579301</v>
+        <v>318.5044627482999</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549932</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>116.3353646931862</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549932</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016748</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111713</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>472.904110515859</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>159.3393849103587</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549932</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0.7540807028593151</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>213.2742757378061</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3690632.411981414</v>
+        <v>3686578.286222034</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>131.2696589069214</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>15.54413360818849</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -825,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>43.30112502764913</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.18609391401973</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,19 +898,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>243.4420291455254</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>26.36573169766212</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>135.155792141666</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>210.4143408678694</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>40.12741312164616</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1296,19 +1296,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>137.0872572463026</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>62.09581973348946</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>152.8697920431067</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>32.81060261323915</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,13 +1821,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487369</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>96.36494467178768</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>140.1230996349833</v>
       </c>
       <c r="C19" t="n">
-        <v>53.65602513333643</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>101.6969570046971</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>12.7400764119402</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>152.3242997534466</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2724,13 +2724,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>139.9371893537534</v>
+        <v>105.1820732698679</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2775,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187843</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2854,13 +2854,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="30">
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>41.74133133758716</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2961,7 +2961,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>157.2343752954199</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>30.87238256911976</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>142.3575218158273</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3957,10 +3957,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>99.98993057842257</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>138.6129131698093</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1198.574246756696</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="C2" t="n">
-        <v>829.6117298162847</v>
+        <v>549.0536009814534</v>
       </c>
       <c r="D2" t="n">
-        <v>471.3460312095341</v>
+        <v>190.7879023747029</v>
       </c>
       <c r="E2" t="n">
-        <v>85.5577786112899</v>
+        <v>190.7879023747029</v>
       </c>
       <c r="F2" t="n">
-        <v>78.61227786208643</v>
+        <v>183.8424016254995</v>
       </c>
       <c r="G2" t="n">
-        <v>66.94793162677936</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>66.94793162677936</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4366,16 +4366,16 @@
         <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.31341879663</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1975.31341879663</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1975.31341879663</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>1585.174086820818</v>
+        <v>918.0161179218651</v>
       </c>
     </row>
     <row r="3">
@@ -4412,22 +4412,22 @@
         <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>1977.748514897737</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>370.2996089082458</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C4" t="n">
-        <v>201.3634259803388</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>51.24678656800311</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234358</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T4" t="n">
-        <v>1216.838891429094</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U4" t="n">
-        <v>927.7205539329314</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="V4" t="n">
-        <v>673.0360657270445</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="W4" t="n">
-        <v>383.6188956900839</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="X4" t="n">
-        <v>383.6188956900839</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="Y4" t="n">
-        <v>370.2996089082458</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1285.277735635578</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="C5" t="n">
-        <v>916.3152186951659</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>769.482504888653</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>769.482504888653</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073142</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4564,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>1671.877575699699</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>663.8430895008161</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>527.322087337517</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>527.322087337517</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.908724368016</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>845.4915543310558</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>845.4915543310558</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>845.4915543310558</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1238.038871968308</v>
+        <v>1555.338782035317</v>
       </c>
       <c r="C8" t="n">
-        <v>869.0763550278964</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D8" t="n">
-        <v>510.8106564211459</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E8" t="n">
-        <v>125.0224038229017</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>118.0769030736982</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>107.0448569590987</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>107.0448569590987</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883006</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269321</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008242</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.63871203243</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
@@ -4895,40 +4895,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>471.2459535582122</v>
+        <v>944.7237329438971</v>
       </c>
       <c r="C10" t="n">
-        <v>302.3097706303054</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="D10" t="n">
-        <v>163.837793613838</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E10" t="n">
-        <v>163.837793613838</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
-        <v>163.837793613838</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.837793613838</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1391.09371846696</v>
+        <v>1864.571497852645</v>
       </c>
       <c r="W10" t="n">
-        <v>1101.676548429999</v>
+        <v>1575.154327815684</v>
       </c>
       <c r="X10" t="n">
-        <v>873.6869975319821</v>
+        <v>1347.164776917667</v>
       </c>
       <c r="Y10" t="n">
-        <v>652.894418388452</v>
+        <v>1126.372197774137</v>
       </c>
     </row>
     <row r="11">
@@ -5035,28 +5035,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5077,7 +5077,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>214.9229991561138</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.777212765616</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2225.50344847599</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2225.50344847599</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W13" t="n">
-        <v>1400.559342807163</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>1172.569791909146</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>951.777212765616</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5269,34 +5269,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>705.9324428257312</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1336.363037697518</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>1108.373486799501</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>887.5809076559709</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5512,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5554,10 +5554,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>2876.560776129205</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3473.939263755757</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>4101.537227310363</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>4101.537227310363</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4525.160376805431</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>734.6461798836013</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138411</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,64 +5740,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D22" t="n">
-        <v>363.7369613277355</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E22" t="n">
-        <v>363.7369613277355</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>248.3972582582387</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>106.6854271004367</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5955,7 +5955,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5971,13 +5971,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>868.6673633290469</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>699.73118040114</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2043.199616443682</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2043.199616443682</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1788.515128237795</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1499.097958200834</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1271.108407302817</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1050.315828159287</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.306025422647</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C28" t="n">
-        <v>929.3698424947402</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D28" t="n">
-        <v>779.2532030824044</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E28" t="n">
-        <v>631.3401095000113</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="F28" t="n">
-        <v>484.4501620021009</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="G28" t="n">
-        <v>317.2540627169809</v>
+        <v>282.1478848544703</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W28" t="n">
-        <v>1500.747069396417</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X28" t="n">
-        <v>1500.747069396417</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y28" t="n">
-        <v>1279.954490252887</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797184</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075789</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014776</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355934</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="30">
@@ -6530,16 +6530,16 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6548,16 +6548,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>642.8692823226939</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>473.9330993947871</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>323.8164599824514</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>175.9033664000582</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6666,7 +6666,7 @@
         <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>824.5177471529337</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6682,37 +6682,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>988.1395539230172</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>819.2033709951103</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>669.0867315827745</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>521.1736380003814</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>374.283690502471</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>207.087591217351</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1907.987318831765</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1618.570148794804</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1390.580597896787</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1169.788018753257</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>2726.91413360155</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>3324.292621228102</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>3951.890584782709</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7077,19 +7077,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111711</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C39" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D39" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>2231.58852738579</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>2346.760538432045</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>2680.685310603265</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>2680.685310603265</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>3278.063798229817</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>3905.661761784424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>4457.571492023711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P39" t="n">
-        <v>4457.571492023711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q39" t="n">
-        <v>4690.833152398593</v>
+        <v>2532.719182723414</v>
       </c>
       <c r="R39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S39" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T39" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U39" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V39" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W39" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X39" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y39" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>948.5505208511905</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1833.665603928865</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1578.981115722978</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7605,16 +7605,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7642,10 +7642,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7721,28 +7721,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>950.7540666811332</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>781.8178837532263</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>631.7012443408905</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039159</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>14.25823202432844</v>
+        <v>265.0304328515151</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>20.93778120154991</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,19 +23466,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>28.15649395853794</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>253.7123957233518</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>190.1580536648033</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>39.70888054695399</v>
       </c>
       <c r="C19" t="n">
-        <v>113.5907959652914</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>43.72409101823416</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>68.52575990662532</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>65.08115057384163</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.3575234924705342</v>
+        <v>35.11263957635599</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -24858,7 +24858,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>61.35027805667485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>109.4223302771041</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>146.8157004124962</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>143.8269525734169</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>186.5330677581684</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>79.97174018228549</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>654866.4392271896</v>
+        <v>654866.4392271898</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>654866.4392271896</v>
+        <v>654866.4392271898</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>654866.4392271896</v>
+        <v>654866.4392271898</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>654866.4392271898</v>
+        <v>654866.4392271896</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>654866.4392271898</v>
+        <v>654866.4392271896</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>654866.4392271898</v>
+        <v>654866.4392271896</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>654866.4392271898</v>
+        <v>654866.4392271896</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>654866.4392271898</v>
+        <v>654866.4392271896</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>654866.4392271898</v>
+        <v>654866.4392271896</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710693</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055062</v>
       </c>
       <c r="G2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055062</v>
       </c>
       <c r="H2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="I2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="J2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="K2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="L2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="M2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="N2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="K2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="L2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="M2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="N2" t="n">
-        <v>766789.2697055057</v>
-      </c>
       <c r="O2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121061</v>
+        <v>203438.741612106</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605445</v>
+        <v>49110.09270605441</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3.785989661239377e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,31 +26420,31 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
+        <v>89134.1790931202</v>
+      </c>
+      <c r="D4" t="n">
         <v>89134.17909312015</v>
-      </c>
-      <c r="D4" t="n">
-        <v>89134.17909312023</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768959</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768959</v>
+        <v>9947.144321769021</v>
       </c>
       <c r="L4" t="n">
         <v>9947.144321768897</v>
@@ -26453,10 +26453,10 @@
         <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768952</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768963</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="P4" t="n">
         <v>9947.144321768897</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-565630.2850519166</v>
+        <v>-565630.2850519167</v>
       </c>
       <c r="C6" t="n">
-        <v>379482.8201044495</v>
+        <v>379482.8201044493</v>
       </c>
       <c r="D6" t="n">
-        <v>582921.5617165555</v>
+        <v>582921.5617165554</v>
       </c>
       <c r="E6" t="n">
-        <v>330307.1337524747</v>
+        <v>329959.7544981173</v>
       </c>
       <c r="F6" t="n">
-        <v>655719.5955598301</v>
+        <v>655372.2163054732</v>
       </c>
       <c r="G6" t="n">
-        <v>655719.59555983</v>
+        <v>655372.2163054735</v>
       </c>
       <c r="H6" t="n">
-        <v>655719.5955598298</v>
+        <v>655372.2163054729</v>
       </c>
       <c r="I6" t="n">
-        <v>655719.59555983</v>
+        <v>655372.216305473</v>
       </c>
       <c r="J6" t="n">
-        <v>488114.4177498473</v>
+        <v>487767.0384954905</v>
       </c>
       <c r="K6" t="n">
-        <v>606609.5028537754</v>
+        <v>606262.1235994181</v>
       </c>
       <c r="L6" t="n">
-        <v>655719.59555983</v>
+        <v>655372.2163054728</v>
       </c>
       <c r="M6" t="n">
-        <v>570664.5676243181</v>
+        <v>570317.1883699609</v>
       </c>
       <c r="N6" t="n">
-        <v>655719.5955598297</v>
+        <v>655372.216305473</v>
       </c>
       <c r="O6" t="n">
-        <v>655719.5955598301</v>
+        <v>655372.2163054729</v>
       </c>
       <c r="P6" t="n">
-        <v>655719.5955598301</v>
+        <v>655372.2163054729</v>
       </c>
     </row>
   </sheetData>
@@ -26712,7 +26712,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26792,10 +26792,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022533</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27260,13 +27260,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>280.2780438660326</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>50.16577906428201</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>182.408530361388</v>
       </c>
       <c r="Y4" t="n">
-        <v>205.3985594380751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,19 +27618,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>163.434016596186</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>359.8722069583915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>32.09102895696179</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>172.3195007956112</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.449516651279787</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28016,19 +28016,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>11.52821577190971</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28070,7 +28070,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>190.0418235903385</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28806,7 +28806,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.315036438411535e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29574,13 +29574,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>9.65407064635154e-14</v>
       </c>
     </row>
     <row r="30">
@@ -30282,7 +30282,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30477,7 +30477,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>260.1710714068256</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>338.6542681503479</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>669.5976799347666</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,34 +32311,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>270.3182595810212</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32548,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>456.3459017226598</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32566,10 +32566,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32785,10 +32785,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32797,22 +32797,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>454.1257695262137</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33022,31 +33022,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>430.400187030115</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33268,7 +33268,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,10 +33277,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>471.1883883160951</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33496,28 +33496,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>689.3300812557329</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>461.1007071927443</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33891,10 +33891,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33970,16 +33970,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>243.1729913598529</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,7 +33997,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>166.2270851128133</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34222,16 +34222,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>290.6810969936921</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34444,28 +34444,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>355.4083096598243</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34780,7 +34780,7 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378501</v>
@@ -34792,13 +34792,13 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>263.9377611478607</v>
+        <v>514.7099619750473</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>122.3296324324666</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>196.0580237059035</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>527.4636460127483</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3364854949997</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>318.5044627483008</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36214,10 +36214,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36445,22 +36445,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>311.9917356041954</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>291.8458072502408</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,10 +36925,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>328.5921438716507</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>557.9883691723996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>318.5044627482999</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37539,10 +37539,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>116.3353646931862</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37870,16 +37870,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>159.3393849103587</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>213.2742757378061</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3686578.286222034</v>
+        <v>3688338.816524819</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7613296.251723599</v>
+        <v>7613296.251723598</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>131.2696589069214</v>
+        <v>227.7569603098104</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>46.24467307253314</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>43.30112502764913</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>243.4420291455254</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>17.35112070699463</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>138.8346023448377</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>157.7822070347172</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>210.4143408678694</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>204.2286969283056</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1302,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>71.67037196991711</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>62.09581973348946</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1375,13 +1375,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417098</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>152.8697920431067</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>112.1382188876854</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576164</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>147.6895341487369</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1906,13 +1906,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>140.1230996349833</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>12.7400764119402</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2718,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>105.1820732698679</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187843</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2854,13 +2854,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>41.74133133758716</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>65.67353929277157</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428163</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>120.7871326503968</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4146,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>26.13627195705873</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>918.0161179218651</v>
+        <v>2175.739488336033</v>
       </c>
       <c r="C2" t="n">
-        <v>549.0536009814534</v>
+        <v>1806.776971395622</v>
       </c>
       <c r="D2" t="n">
-        <v>190.7879023747029</v>
+        <v>1448.511272788871</v>
       </c>
       <c r="E2" t="n">
-        <v>190.7879023747029</v>
+        <v>1062.723020190627</v>
       </c>
       <c r="F2" t="n">
-        <v>183.8424016254995</v>
+        <v>651.7371154010195</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872908</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218651</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Y2" t="n">
-        <v>918.0161179218651</v>
+        <v>2562.339328400155</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>711.8144409709059</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>542.8782580429991</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>392.7616186306633</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>244.8485250482702</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>97.95857755035982</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>97.95857755035982</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>97.95857755035982</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
@@ -4515,25 +4515,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.862713590079</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1533.862713590079</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>1533.862713590079</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="W4" t="n">
-        <v>1533.862713590079</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="X4" t="n">
-        <v>1490.124203461141</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="Y4" t="n">
-        <v>1269.331624317611</v>
+        <v>893.4629058011457</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1127.748203495403</v>
+        <v>2065.110222835252</v>
       </c>
       <c r="C5" t="n">
-        <v>1127.748203495403</v>
+        <v>1696.14770589484</v>
       </c>
       <c r="D5" t="n">
-        <v>769.482504888653</v>
+        <v>1337.88200728809</v>
       </c>
       <c r="E5" t="n">
-        <v>769.482504888653</v>
+        <v>952.0937546898456</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>541.1078499002381</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>126.0353997452345</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4567,19 +4567,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4600,19 +4600,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066531</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796417</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535337</v>
+        <v>2841.849394875186</v>
       </c>
       <c r="Y5" t="n">
-        <v>1514.348043559525</v>
+        <v>2451.710062899374</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>917.9306290998769</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>748.99444617197</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>598.8778067596343</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>450.9647131772412</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>304.0747656793308</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V7" t="n">
-        <v>1767.918581386758</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="W7" t="n">
-        <v>1478.501411349798</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="X7" t="n">
-        <v>1250.51186045178</v>
+        <v>1320.371673073647</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>1099.579093930117</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1555.338782035317</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C8" t="n">
-        <v>1186.376265094905</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D8" t="n">
-        <v>828.1105664881544</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881544</v>
+        <v>736.8185791558162</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>325.8326743662087</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>314.8006282516092</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792696</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522581</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261502</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.87852028569</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,49 +4886,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>944.7237329438971</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>775.7875500159902</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4998,16 +4998,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1864.571497852645</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1575.154327815684</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>1347.164776917667</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>1126.372197774137</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075789</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014776</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355934</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5108,34 +5108,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1702.07903472198</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>874.868625753638</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>705.9324428257311</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>555.8158034133953</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>407.9027098310022</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2225.50344847599</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2225.50344847599</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1936.428221820188</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5275,28 +5275,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5354,13 +5354,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5512,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5554,10 +5554,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5597,10 +5597,10 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
         <v>1373.553594266881</v>
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>634.927936255316</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
         <v>484.8112968429803</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>565.7099969556945</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>415.5933575433587</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>415.5933575433587</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>415.5933575433587</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>248.3972582582387</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>106.6854271004367</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5955,7 +5955,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5971,28 +5971,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6223,7 +6223,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>747.3737171343192</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>597.2570777219835</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>449.3439841395904</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>449.3439841395904</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>282.1478848544703</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797184</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075789</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6530,16 +6530,16 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273899</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797183</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797183</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6648,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2380.626175203724</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2380.626175203724</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>2091.550948547922</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1836.866460342035</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="32">
@@ -6688,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6849,7 +6849,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6961,28 +6961,28 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7089,10 +7089,10 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
@@ -7174,10 +7174,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
         <v>402.7245934908939</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7393,43 +7393,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
         <v>402.7245934908939</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7648,10 +7648,10 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8463960427007</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>202.303641104158</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>265.0304328515151</v>
+        <v>193.3273467878356</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>20.93778120154991</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>28.15649395853794</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>139.9994244361426</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>39.70888054695399</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>68.52575990662532</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>35.11263957635599</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.352746708873</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>654866.4392271898</v>
+        <v>654866.4392271896</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>654866.4392271898</v>
+        <v>654866.4392271896</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>654866.4392271898</v>
+        <v>654866.4392271896</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>654866.4392271898</v>
+        <v>654866.4392271896</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>654866.4392271896</v>
+        <v>654866.4392271898</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>654866.4392271896</v>
+        <v>654866.4392271898</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710693</v>
+        <v>779989.6813710695</v>
       </c>
       <c r="C2" t="n">
         <v>779989.6813710688</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710692</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055056</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="F2" t="n">
         <v>766789.2697055062</v>
       </c>
       <c r="G2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="H2" t="n">
         <v>766789.2697055058</v>
@@ -26337,25 +26337,25 @@
         <v>766789.2697055059</v>
       </c>
       <c r="J2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="K2" t="n">
-        <v>766789.2697055056</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="L2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="M2" t="n">
+        <v>766789.2697055055</v>
+      </c>
+      <c r="N2" t="n">
         <v>766789.2697055057</v>
-      </c>
-      <c r="M2" t="n">
-        <v>766789.2697055056</v>
-      </c>
-      <c r="N2" t="n">
-        <v>766789.2697055059</v>
       </c>
       <c r="O2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.269705506</v>
       </c>
     </row>
     <row r="3">
@@ -26368,16 +26368,16 @@
         <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.741612106</v>
+        <v>203438.7416121058</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.30296939460095e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605441</v>
+        <v>49110.09270605445</v>
       </c>
       <c r="L3" t="n">
-        <v>3.785989661239377e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26420,16 +26420,16 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.1790931202</v>
+        <v>89134.17909312021</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.17909312021</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768981</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768905</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768897</v>
@@ -26444,13 +26444,13 @@
         <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321769021</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768843</v>
       </c>
       <c r="N4" t="n">
         <v>9947.144321768897</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-565630.2850519167</v>
+        <v>-565630.2850519165</v>
       </c>
       <c r="C6" t="n">
-        <v>379482.8201044493</v>
+        <v>379482.8201044495</v>
       </c>
       <c r="D6" t="n">
         <v>582921.5617165554</v>
       </c>
       <c r="E6" t="n">
-        <v>329959.7544981173</v>
+        <v>330272.3958270391</v>
       </c>
       <c r="F6" t="n">
-        <v>655372.2163054732</v>
+        <v>655684.8576343944</v>
       </c>
       <c r="G6" t="n">
-        <v>655372.2163054735</v>
+        <v>655684.8576343943</v>
       </c>
       <c r="H6" t="n">
-        <v>655372.2163054729</v>
+        <v>655684.8576343942</v>
       </c>
       <c r="I6" t="n">
-        <v>655372.216305473</v>
+        <v>655684.8576343943</v>
       </c>
       <c r="J6" t="n">
-        <v>487767.0384954905</v>
+        <v>488079.6798244114</v>
       </c>
       <c r="K6" t="n">
-        <v>606262.1235994181</v>
+        <v>606574.7649283399</v>
       </c>
       <c r="L6" t="n">
-        <v>655372.2163054728</v>
+        <v>655684.8576343943</v>
       </c>
       <c r="M6" t="n">
-        <v>570317.1883699609</v>
+        <v>570629.8296988819</v>
       </c>
       <c r="N6" t="n">
-        <v>655372.216305473</v>
+        <v>655684.8576343941</v>
       </c>
       <c r="O6" t="n">
-        <v>655372.2163054729</v>
+        <v>655684.8576343942</v>
       </c>
       <c r="P6" t="n">
-        <v>655372.2163054729</v>
+        <v>655684.8576343943</v>
       </c>
     </row>
   </sheetData>
@@ -26694,25 +26694,25 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26795,7 +26795,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.711808475759</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022533</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>280.2780438660326</v>
+        <v>183.7907424631436</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>58.55192213136744</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>182.408530361388</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>163.434016596186</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>277.2566436803259</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>27.19120591419048</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,13 +27830,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>94.3554362891108</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>172.3195007956112</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>90.37906745901486</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>73.08464294440367</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28070,7 +28070,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>190.0418235903385</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28095,13 +28095,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.672078567559044e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28383,10 +28383,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.315036438411535e-12</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29574,13 +29574,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O12" t="n">
-        <v>338.6542681503479</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32317,13 +32317,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043748</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33894,7 +33894,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378501</v>
@@ -34795,10 +34795,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>514.7099619750473</v>
+        <v>443.0068759113678</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O12" t="n">
-        <v>196.0580237059035</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,7 +35731,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,7 +35740,7 @@
         <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35965,13 +35965,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902427</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
